--- a/outputs/telegram_analysis.xlsx
+++ b/outputs/telegram_analysis.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Quick_Extract" sheetId="2" r:id="rId2"/>
+    <sheet name="KOL_Channels" sheetId="2" r:id="rId2"/>
+    <sheet name="Quick_Extract" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Metric</t>
   </si>
@@ -44,7 +45,52 @@
     <t>Other Wallets</t>
   </si>
   <si>
-    <t>2025-05-21 19:10</t>
+    <t>2025-05-21 20:04</t>
+  </si>
+  <si>
+    <t>channel_id</t>
+  </si>
+  <si>
+    <t>total_calls</t>
+  </si>
+  <si>
+    <t>success_rate</t>
+  </si>
+  <si>
+    <t>avg_roi</t>
+  </si>
+  <si>
+    <t>avg_max_roi</t>
+  </si>
+  <si>
+    <t>confidence_level</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>entry_type</t>
+  </si>
+  <si>
+    <t>take_profit_1</t>
+  </si>
+  <si>
+    <t>take_profit_2</t>
+  </si>
+  <si>
+    <t>take_profit_3</t>
+  </si>
+  <si>
+    <t>stop_loss</t>
+  </si>
+  <si>
+    <t>1697916852</t>
+  </si>
+  <si>
+    <t>CAUTIOUS</t>
+  </si>
+  <si>
+    <t>WAIT_FOR_CONFIRMATION</t>
   </si>
   <si>
     <t>Type</t>
@@ -466,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -515,6 +561,106 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>40</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>-15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -529,28 +675,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/telegram_analysis.xlsx
+++ b/outputs/telegram_analysis.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="KOL_Channels" sheetId="2" r:id="rId2"/>
-    <sheet name="Quick_Extract" sheetId="3" r:id="rId3"/>
+    <sheet name="Quick_Extract" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Metric</t>
   </si>
@@ -45,52 +44,7 @@
     <t>Other Wallets</t>
   </si>
   <si>
-    <t>2025-05-21 20:04</t>
-  </si>
-  <si>
-    <t>channel_id</t>
-  </si>
-  <si>
-    <t>total_calls</t>
-  </si>
-  <si>
-    <t>success_rate</t>
-  </si>
-  <si>
-    <t>avg_roi</t>
-  </si>
-  <si>
-    <t>avg_max_roi</t>
-  </si>
-  <si>
-    <t>confidence_level</t>
-  </si>
-  <si>
-    <t>strategy</t>
-  </si>
-  <si>
-    <t>entry_type</t>
-  </si>
-  <si>
-    <t>take_profit_1</t>
-  </si>
-  <si>
-    <t>take_profit_2</t>
-  </si>
-  <si>
-    <t>take_profit_3</t>
-  </si>
-  <si>
-    <t>stop_loss</t>
-  </si>
-  <si>
-    <t>1697916852</t>
-  </si>
-  <si>
-    <t>CAUTIOUS</t>
-  </si>
-  <si>
-    <t>WAIT_FOR_CONFIRMATION</t>
+    <t>2025-05-21 20:32</t>
   </si>
   <si>
     <t>Type</t>
@@ -512,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -561,106 +515,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>40</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>-15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -675,28 +529,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
